--- a/data/hotels_by_city/Houston/Houston_shard_675.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_675.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="207">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d1146185-Reviews-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
   </si>
   <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Conroe-Hotels-WoodSpring-Suites-Conroe.h2133712.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,506 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r523590306-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1146185</t>
+  </si>
+  <si>
+    <t>523590306</t>
+  </si>
+  <si>
+    <t>09/11/2017</t>
+  </si>
+  <si>
+    <t>Best hotel in Conroe!!</t>
+  </si>
+  <si>
+    <t>Amazing customer service and rooms. Everyone is very friendly and the rooms are clean and comfortable. I would highly recommend anyone traveling to Conroe to stay at this hotel. I have absolutely zero complaints.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>nmartinez2017, Manager at WoodSpring Suites Conroe, responded to this reviewResponded September 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2017</t>
+  </si>
+  <si>
+    <t>Amazing customer service and rooms. Everyone is very friendly and the rooms are clean and comfortable. I would highly recommend anyone traveling to Conroe to stay at this hotel. I have absolutely zero complaints.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r499000290-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>499000290</t>
+  </si>
+  <si>
+    <t>07/05/2017</t>
+  </si>
+  <si>
+    <t>Worst hotel ever!!</t>
+  </si>
+  <si>
+    <t>We checked into this hotel needing to stay seven nights! When we got checked in and up to our room it was HORRIBLE! The sheets had brown spots. The room smelt like smoke( when I told the front desk they told me to turn the a/c on 65 because they always smell like that) of course that made me furious. I decided I would stay and just spray something and hope for the best, UNTIL I started heading towards the bathroom and it had no door handle!!!! I immediately went to the front desk and asked if the bathroom should have a door handle she laughed and said yes. Then followed with I'm sorry that room should not have been issued out! I asked what were we suppose to do she told us to stay in the room for the night and would switch us tomorrow! I'm sorry but we just payed over $400 for our stay and that's ridiculous! So I asked for refund they stated they could not do that until the next day and I needed to speak with john the general manager ( who wasn't much help either) I called the next morning two hours after the time I was told he would call me! When I told him everything he then just said "yeah sorry that was my fault" he even thought we were still there! Very very unprofessional management! As he was about to...We checked into this hotel needing to stay seven nights! When we got checked in and up to our room it was HORRIBLE! The sheets had brown spots. The room smelt like smoke( when I told the front desk they told me to turn the a/c on 65 because they always smell like that) of course that made me furious. I decided I would stay and just spray something and hope for the best, UNTIL I started heading towards the bathroom and it had no door handle!!!! I immediately went to the front desk and asked if the bathroom should have a door handle she laughed and said yes. Then followed with I'm sorry that room should not have been issued out! I asked what were we suppose to do she told us to stay in the room for the night and would switch us tomorrow! I'm sorry but we just payed over $400 for our stay and that's ridiculous! So I asked for refund they stated they could not do that until the next day and I needed to speak with john the general manager ( who wasn't much help either) I called the next morning two hours after the time I was told he would call me! When I told him everything he then just said "yeah sorry that was my fault" he even thought we were still there! Very very unprofessional management! As he was about to refund the our payment he explained his computers shut down and would have to call me back! By then I was furious!!! This was the worst stay at a hotel I have ever experienced! I would NOT recommend this hotel to anyone!!! He then called me back 4 hours later and only said I refunded the money and emailed you confirmation to the email on file. Not a sorry or I hope you give a try in the future nothing!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>nmartinez2017, Manager at WoodSpring Suites Conroe, responded to this reviewResponded July 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2017</t>
+  </si>
+  <si>
+    <t>We checked into this hotel needing to stay seven nights! When we got checked in and up to our room it was HORRIBLE! The sheets had brown spots. The room smelt like smoke( when I told the front desk they told me to turn the a/c on 65 because they always smell like that) of course that made me furious. I decided I would stay and just spray something and hope for the best, UNTIL I started heading towards the bathroom and it had no door handle!!!! I immediately went to the front desk and asked if the bathroom should have a door handle she laughed and said yes. Then followed with I'm sorry that room should not have been issued out! I asked what were we suppose to do she told us to stay in the room for the night and would switch us tomorrow! I'm sorry but we just payed over $400 for our stay and that's ridiculous! So I asked for refund they stated they could not do that until the next day and I needed to speak with john the general manager ( who wasn't much help either) I called the next morning two hours after the time I was told he would call me! When I told him everything he then just said "yeah sorry that was my fault" he even thought we were still there! Very very unprofessional management! As he was about to...We checked into this hotel needing to stay seven nights! When we got checked in and up to our room it was HORRIBLE! The sheets had brown spots. The room smelt like smoke( when I told the front desk they told me to turn the a/c on 65 because they always smell like that) of course that made me furious. I decided I would stay and just spray something and hope for the best, UNTIL I started heading towards the bathroom and it had no door handle!!!! I immediately went to the front desk and asked if the bathroom should have a door handle she laughed and said yes. Then followed with I'm sorry that room should not have been issued out! I asked what were we suppose to do she told us to stay in the room for the night and would switch us tomorrow! I'm sorry but we just payed over $400 for our stay and that's ridiculous! So I asked for refund they stated they could not do that until the next day and I needed to speak with john the general manager ( who wasn't much help either) I called the next morning two hours after the time I was told he would call me! When I told him everything he then just said "yeah sorry that was my fault" he even thought we were still there! Very very unprofessional management! As he was about to refund the our payment he explained his computers shut down and would have to call me back! By then I was furious!!! This was the worst stay at a hotel I have ever experienced! I would NOT recommend this hotel to anyone!!! He then called me back 4 hours later and only said I refunded the money and emailed you confirmation to the email on file. Not a sorry or I hope you give a try in the future nothing!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r498970579-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>498970579</t>
+  </si>
+  <si>
+    <t>JEWEL IN THE CONROE CROWN!</t>
+  </si>
+  <si>
+    <t>Whilst waiting on some bureaucratic processing after selling my house in Willis before I could continue my global travel plans, I needed a place to stay for awhile. I checked out all of the local hotels, inns &amp; suites in the area &amp; most, (Red Roof, Comfort Inn, etc), offered a regular single room with no amenities. I wanted a reasonably priced 'safe &amp; clean' suite with a kitchen, WiFi, Good TV channels &amp; most importantly friendly management/staff that demonstrated total respect for their guests. I found it here! John K, Robin, Jake &amp; all of the crew here are welcoming, responsive &amp; safety conscious. In a business capacity I've stayed in "corporate expensed" big name hotels &amp; suites all over the world, (Hilton, Marriott, Residence Inns, Embassy Suites, Homewood Suites, Manhattan Suites in Cape Town, etc, etc), However...If you are looking for a competitively priced, secure, comfortable &amp; quiet! (I hear absolutely no noise from adjoining rooms), place to stay whether you are a contracting crew, visiting tourist or local looking for a place to stay close to Conroe, stores &amp; the lake...I highly recommend Woodspring suites.MoreShow less</t>
+  </si>
+  <si>
+    <t>Whilst waiting on some bureaucratic processing after selling my house in Willis before I could continue my global travel plans, I needed a place to stay for awhile. I checked out all of the local hotels, inns &amp; suites in the area &amp; most, (Red Roof, Comfort Inn, etc), offered a regular single room with no amenities. I wanted a reasonably priced 'safe &amp; clean' suite with a kitchen, WiFi, Good TV channels &amp; most importantly friendly management/staff that demonstrated total respect for their guests. I found it here! John K, Robin, Jake &amp; all of the crew here are welcoming, responsive &amp; safety conscious. In a business capacity I've stayed in "corporate expensed" big name hotels &amp; suites all over the world, (Hilton, Marriott, Residence Inns, Embassy Suites, Homewood Suites, Manhattan Suites in Cape Town, etc, etc), However...If you are looking for a competitively priced, secure, comfortable &amp; quiet! (I hear absolutely no noise from adjoining rooms), place to stay whether you are a contracting crew, visiting tourist or local looking for a place to stay close to Conroe, stores &amp; the lake...I highly recommend Woodspring suites.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r488598809-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>488598809</t>
+  </si>
+  <si>
+    <t>05/28/2017</t>
+  </si>
+  <si>
+    <t>Daughters Graduation Trip</t>
+  </si>
+  <si>
+    <t>I stayed here last month and although the maids didn't vacuum under the sofa nor change the sheets on it, I decided to give them another chance. Boy was that a mistake... Yes the check in process went smooth, yes the room was clean this time but looks can be deceiving. I was put in a small room with a bed and 2 small plastic chairs for the little table. NO sofa so good luck trying to relax in your room. Bed is hard and worn out. No amenities at all. You can buy 2 sets of silverware, a pot and a skillet for $30. You would be better of going to dollar store and getting it. God forbid you need clean towels at 9 pm. You will get rudely told, " we only exchange towels during normal business hours" Excuse me then why have a sign stating to dial 500 for assistance when no one is at the counter? I will not be staying here again and recommend another place.MoreShow less</t>
+  </si>
+  <si>
+    <t>nmartinez2017, Manager at WoodSpring Suites Conroe, responded to this reviewResponded May 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here last month and although the maids didn't vacuum under the sofa nor change the sheets on it, I decided to give them another chance. Boy was that a mistake... Yes the check in process went smooth, yes the room was clean this time but looks can be deceiving. I was put in a small room with a bed and 2 small plastic chairs for the little table. NO sofa so good luck trying to relax in your room. Bed is hard and worn out. No amenities at all. You can buy 2 sets of silverware, a pot and a skillet for $30. You would be better of going to dollar store and getting it. God forbid you need clean towels at 9 pm. You will get rudely told, " we only exchange towels during normal business hours" Excuse me then why have a sign stating to dial 500 for assistance when no one is at the counter? I will not be staying here again and recommend another place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r483289143-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>483289143</t>
+  </si>
+  <si>
+    <t>05/10/2017</t>
+  </si>
+  <si>
+    <t>Not what I expected through my own fault!</t>
+  </si>
+  <si>
+    <t>The front desk was just that and alarms should have gone off..The guys at front were wonderful for the quick intro.  The room when i got there was pretty good.  I didn't realize extended stay so of course had nothing there.  Hair dryer(had my own).  light in kitchen out so only had bedroom light. too bright so had to use the bathroom light.   No lamp at bedside table.  Mattress was not as comfortable as many.  Microwave kept throwing breaker switch.  I had to reset 5 times to heat my dinner.  I did not look close as i wanted a coffee pot.dryer,breakfast bar so i wouldn't have to drive all over.  More my fault then theirs for not paying attention but I would not recommend this without know strictly extended stay and no ammenities what so ever.....MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>nmartinez2017, Manager at WoodSpring Suites Conroe, responded to this reviewResponded May 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2017</t>
+  </si>
+  <si>
+    <t>The front desk was just that and alarms should have gone off..The guys at front were wonderful for the quick intro.  The room when i got there was pretty good.  I didn't realize extended stay so of course had nothing there.  Hair dryer(had my own).  light in kitchen out so only had bedroom light. too bright so had to use the bathroom light.   No lamp at bedside table.  Mattress was not as comfortable as many.  Microwave kept throwing breaker switch.  I had to reset 5 times to heat my dinner.  I did not look close as i wanted a coffee pot.dryer,breakfast bar so i wouldn't have to drive all over.  More my fault then theirs for not paying attention but I would not recommend this without know strictly extended stay and no ammenities what so ever.....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r467558398-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>467558398</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t>Great experience for our out of town employees!</t>
+  </si>
+  <si>
+    <t>The front desk made scheduling and payment of the reservations EFFORTLESS for our out-of-town employees.  We sent employees weekly for almost a year, and the staff made sure our visiting employees were made to feel at home, as well as, ensuring our office staff had no hassles when it came time for check-in and check-out.  We will certainly continue to send our guys here when future project take us Conroe!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>nmartinez2017, Manager at WoodSpring Suites Conroe, responded to this reviewResponded March 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2017</t>
+  </si>
+  <si>
+    <t>The front desk made scheduling and payment of the reservations EFFORTLESS for our out-of-town employees.  We sent employees weekly for almost a year, and the staff made sure our visiting employees were made to feel at home, as well as, ensuring our office staff had no hassles when it came time for check-in and check-out.  We will certainly continue to send our guys here when future project take us Conroe!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r433283193-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>433283193</t>
+  </si>
+  <si>
+    <t>10/31/2016</t>
+  </si>
+  <si>
+    <t>Clean value</t>
+  </si>
+  <si>
+    <t>Clean!!!! Great value, good location... the staff was friendly... i give it a high rating because it was the cleanest hotel i have been in for a long time.  So much so that i personally thanked the housekeeper and the front desk'.  No frills, but clean, safe and friendly... and about half the price of the competitors  around the area... MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Stephen S, General Manager at WoodSpring Suites Conroe, responded to this reviewResponded November 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2016</t>
+  </si>
+  <si>
+    <t>Clean!!!! Great value, good location... the staff was friendly... i give it a high rating because it was the cleanest hotel i have been in for a long time.  So much so that i personally thanked the housekeeper and the front desk'.  No frills, but clean, safe and friendly... and about half the price of the competitors  around the area... More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r417745403-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>417745403</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>Happy Experience</t>
+  </si>
+  <si>
+    <t>Not only was I I'll prepared to check in as well as exhausted, but Becky was there to help me. She was extremely knowledgeable and helpful, obviously understanding that I was completely lost about how to handle the check-in. So in my time of need she politely walked me through the process so I could get to bed in short order. Thanks Becky! The next morning Becky was not there but she had taken care of my faulty refrigerator and offered to keep my milk cold in the office until they could fix it. Well the next day Beckys trainee Rhiannon was running her first shift and doing a great job at it. When it came time for my cereal and milk was the obvious next step and I go to the office..... No problem I got my milk and the fridge was fixed, I had a great experience!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Stephen S, General Manager at WoodSpring Suites Conroe, responded to this reviewResponded September 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2016</t>
+  </si>
+  <si>
+    <t>Not only was I I'll prepared to check in as well as exhausted, but Becky was there to help me. She was extremely knowledgeable and helpful, obviously understanding that I was completely lost about how to handle the check-in. So in my time of need she politely walked me through the process so I could get to bed in short order. Thanks Becky! The next morning Becky was not there but she had taken care of my faulty refrigerator and offered to keep my milk cold in the office until they could fix it. Well the next day Beckys trainee Rhiannon was running her first shift and doing a great job at it. When it came time for my cereal and milk was the obvious next step and I go to the office..... No problem I got my milk and the fridge was fixed, I had a great experience!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r369040137-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>369040137</t>
+  </si>
+  <si>
+    <t>04/30/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great stay all around </t>
+  </si>
+  <si>
+    <t>Stayed here when my power went out during the bad storms. Nice property and nice staff. Clean and just what I needed for a couple nights. Kim at front desk checked me in with no problems. Would stay here again. Close to stores and restaurants a lil highway noise but not to much MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Stephen S, Manager at WoodSpring Suites Conroe, responded to this reviewResponded June 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here when my power went out during the bad storms. Nice property and nice staff. Clean and just what I needed for a couple nights. Kim at front desk checked me in with no problems. Would stay here again. Close to stores and restaurants a lil highway noise but not to much More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r331688130-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>331688130</t>
+  </si>
+  <si>
+    <t>12/09/2015</t>
+  </si>
+  <si>
+    <t>Value Place in Conroe</t>
+  </si>
+  <si>
+    <t>The staff was super friendly! The room was nice, it had a kitchenette with a refrigerator.. The environment was quiet, clean and safe. I would definitely recommend them if you need a place to stay short or long term!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>The staff was super friendly! The room was nice, it had a kitchenette with a refrigerator.. The environment was quiet, clean and safe. I would definitely recommend them if you need a place to stay short or long term!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r316898902-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>316898902</t>
+  </si>
+  <si>
+    <t>10/07/2015</t>
+  </si>
+  <si>
+    <t>Clean, Friendly &amp; Welcoming</t>
+  </si>
+  <si>
+    <t>This property is great!  The rooms are always clean, neat and orderly.  The staff is exceptional, they have remembered me upon a return and are very welcoming. I highly recommend this hotel for any kind of traveler.  The location is safe and the building is secure.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r310325040-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>310325040</t>
+  </si>
+  <si>
+    <t>09/14/2015</t>
+  </si>
+  <si>
+    <t>Great experience</t>
+  </si>
+  <si>
+    <t>My family came to Value Place in transition, the staff is great. If you have questions and /or concerns they are quick to ensure you have the answer. The rooms are clean and with safety person on-site we fell secure to stay here. From our experience I would recommend a friend or family to stay here.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r298207401-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>298207401</t>
+  </si>
+  <si>
+    <t>08/12/2015</t>
+  </si>
+  <si>
+    <t>D rooms are clean &amp; d environment very Gd</t>
+  </si>
+  <si>
+    <t>My stay was awesome and very pleasant while at value Place.The services are very Good and prompt. Security of vehicles n guests are always top priority to the management of the property.The rooms are cleaned when it is time to clean them also toiletries are provided when needed and replaced promptly tooMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2017</t>
+  </si>
+  <si>
+    <t>My stay was awesome and very pleasant while at value Place.The services are very Good and prompt. Security of vehicles n guests are always top priority to the management of the property.The rooms are cleaned when it is time to clean them also toiletries are provided when needed and replaced promptly tooMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r296160551-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>296160551</t>
+  </si>
+  <si>
+    <t>08/05/2015</t>
+  </si>
+  <si>
+    <t>good stay</t>
+  </si>
+  <si>
+    <t>“Stayed 3 weeks. Everyone very helpful, courteous and professional. In particularly Jessica, Nicole, Would highly recommend. Place to be closer to work .The location is right off the freeway but kinda out of the way with only a Cavender's Boot City and a mechanic shop as neighbors</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r296125958-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>296125958</t>
+  </si>
+  <si>
+    <t>Amazing customer service with a friendly staff and nice rooms</t>
+  </si>
+  <si>
+    <t>The Value Place is located just off of I-45 being easily accesible after a long travel. The extended stay feature allows your room rates to not be adjusted like most hotels do when you are there for days on end. I have been a Value Place resident for going on 2 months now and have had zero issues with tenants or employees. Mrs. Nicole has great knowledge about this location and is very helpful with questions about the hotel and local ammenities. Her personality makes me feel as if I am with a cousin or close friend, always so nice and generous. The laundry room is always kept up and there doesnt seem to be much traffic so it makes it really nice and comforting to do clothes. Surrounding parking lots and hallways are always nice and clean, the staff definetly shows that they care about their position here at value place. This will for sure be my go to hotel when I am in the areaMoreShow less</t>
+  </si>
+  <si>
+    <t>The Value Place is located just off of I-45 being easily accesible after a long travel. The extended stay feature allows your room rates to not be adjusted like most hotels do when you are there for days on end. I have been a Value Place resident for going on 2 months now and have had zero issues with tenants or employees. Mrs. Nicole has great knowledge about this location and is very helpful with questions about the hotel and local ammenities. Her personality makes me feel as if I am with a cousin or close friend, always so nice and generous. The laundry room is always kept up and there doesnt seem to be much traffic so it makes it really nice and comforting to do clothes. Surrounding parking lots and hallways are always nice and clean, the staff definetly shows that they care about their position here at value place. This will for sure be my go to hotel when I am in the areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r271551824-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>271551824</t>
+  </si>
+  <si>
+    <t>05/12/2015</t>
+  </si>
+  <si>
+    <t>Stayed 3 weeks.  Everyone very helpful, courteous and professional.  In particularly Jessica, Nicole, Brian and Renee.</t>
+  </si>
+  <si>
+    <t>Would highly recommend.  Moving to Willowbrook Value Place to be closer to work.  Everybody including Nicole, Jessica, Brian and Renne were extremely helpful ,courteous and professional during my three week business stay.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r265841559-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>265841559</t>
+  </si>
+  <si>
+    <t>04/15/2015</t>
+  </si>
+  <si>
+    <t>Good value, fairly quiet, and a decent location.</t>
+  </si>
+  <si>
+    <t>For the money I spent on my stay, this wasn't bad. The things that were issues could have and should have been resolved to make my stay an EXCELLENT value for the cost. I was a guest from Feb. 19th to April 11th.
+Before I bring up the issues I experienced, I'll say that the room and common areas were in good condition overall. My room was clean when I moved in and this is a nice place and location for the cost.
+Nicole, the assistant manager, was very nice and always did her best to help where she could. The other front desk person they had during the beginning of my stay quit and I'm sure nobody missed her - she was young, unprofessional, and didn't care about the job. Her replacement is much more caring and has better customer service and will be a good asset to the facility when fully trained.
+I felt safe while I was there and didn't worry too much about my car. The location is right off the freeway but kinda out of the way with only a Cavender's Boot City and a mechanic shop as neighbors. The mechanic shop is a distance away and I never heard any noise from it. With the location, random people don't loiter around so it was very nice.
+There were many times when the fire alarm went off due to somebody's dinner/breakfast/lunch burning (making EVERYBODY unresponsive...For the money I spent on my stay, this wasn't bad. The things that were issues could have and should have been resolved to make my stay an EXCELLENT value for the cost. I was a guest from Feb. 19th to April 11th.Before I bring up the issues I experienced, I'll say that the room and common areas were in good condition overall. My room was clean when I moved in and this is a nice place and location for the cost.Nicole, the assistant manager, was very nice and always did her best to help where she could. The other front desk person they had during the beginning of my stay quit and I'm sure nobody missed her - she was young, unprofessional, and didn't care about the job. Her replacement is much more caring and has better customer service and will be a good asset to the facility when fully trained.I felt safe while I was there and didn't worry too much about my car. The location is right off the freeway but kinda out of the way with only a Cavender's Boot City and a mechanic shop as neighbors. The mechanic shop is a distance away and I never heard any noise from it. With the location, random people don't loiter around so it was very nice.There were many times when the fire alarm went off due to somebody's dinner/breakfast/lunch burning (making EVERYBODY unresponsive to the alarms - honestly this was a huge problem and liability for ya'll) but the alarm typically was silenced very quick and the false alarms (that I experienced) stopped about mid-way through my stay. Maybe they kicked the person out if it was a repeat offender or maybe they fixed the system somehow. The bed was not comfortable at first, but I got used to it and didn't notice after a while. Wifi wasn't bad at all. Don't expect high speed gaming, but I was able to stream Hulu videos and youtube just fine for the most part.Issues:1. Maintenance requests went unanswered/ignored, supposedly the "refresh" renovation had priority over long term stay clients.2. Reoccurring roaches and other bugs - not bad, maybe 1-3 per day that I saw and periods where I didn't see any. They sprayed my room twice, I think, but never did it the third time I requested. It is likely that the spray was working and they were just coming from the neighboring room. Other bugs included silverfish (I think), pincer bugs, and pill bugs mostly in the bathroom. I came across maybe 5 lady bugs in my room during my stay, not that they were bothersome, just curious how they got there lol.3. Their accounting system is a nightmare for expensing your stay with your company, if you have to itemize the bill. Have them charge you the weekly rate up front instead of charging day-by-day if you have to itemize (rate is the same, their standard is just to reduce your account credit by the day instead of one time per week). 4. They add in linen service and don't really tell you that you're paying for it (on top of the weekly rate). If you don't want the linen service tell them and wash the sheets/towels yourself. They are easy to work with though and do refund if requested and you didn't use the service.5. The every-other week room cleaning was fine until one of their maids quit. They either didn't hire another one and don't plan to or they're having trouble finding a replacement. They won't give the other maid extra hours or she won't work them. My last month there my room was cleaned only once and it was over a week after it was supposed to be done.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>For the money I spent on my stay, this wasn't bad. The things that were issues could have and should have been resolved to make my stay an EXCELLENT value for the cost. I was a guest from Feb. 19th to April 11th.
+Before I bring up the issues I experienced, I'll say that the room and common areas were in good condition overall. My room was clean when I moved in and this is a nice place and location for the cost.
+Nicole, the assistant manager, was very nice and always did her best to help where she could. The other front desk person they had during the beginning of my stay quit and I'm sure nobody missed her - she was young, unprofessional, and didn't care about the job. Her replacement is much more caring and has better customer service and will be a good asset to the facility when fully trained.
+I felt safe while I was there and didn't worry too much about my car. The location is right off the freeway but kinda out of the way with only a Cavender's Boot City and a mechanic shop as neighbors. The mechanic shop is a distance away and I never heard any noise from it. With the location, random people don't loiter around so it was very nice.
+There were many times when the fire alarm went off due to somebody's dinner/breakfast/lunch burning (making EVERYBODY unresponsive...For the money I spent on my stay, this wasn't bad. The things that were issues could have and should have been resolved to make my stay an EXCELLENT value for the cost. I was a guest from Feb. 19th to April 11th.Before I bring up the issues I experienced, I'll say that the room and common areas were in good condition overall. My room was clean when I moved in and this is a nice place and location for the cost.Nicole, the assistant manager, was very nice and always did her best to help where she could. The other front desk person they had during the beginning of my stay quit and I'm sure nobody missed her - she was young, unprofessional, and didn't care about the job. Her replacement is much more caring and has better customer service and will be a good asset to the facility when fully trained.I felt safe while I was there and didn't worry too much about my car. The location is right off the freeway but kinda out of the way with only a Cavender's Boot City and a mechanic shop as neighbors. The mechanic shop is a distance away and I never heard any noise from it. With the location, random people don't loiter around so it was very nice.There were many times when the fire alarm went off due to somebody's dinner/breakfast/lunch burning (making EVERYBODY unresponsive to the alarms - honestly this was a huge problem and liability for ya'll) but the alarm typically was silenced very quick and the false alarms (that I experienced) stopped about mid-way through my stay. Maybe they kicked the person out if it was a repeat offender or maybe they fixed the system somehow. The bed was not comfortable at first, but I got used to it and didn't notice after a while. Wifi wasn't bad at all. Don't expect high speed gaming, but I was able to stream Hulu videos and youtube just fine for the most part.Issues:1. Maintenance requests went unanswered/ignored, supposedly the "refresh" renovation had priority over long term stay clients.2. Reoccurring roaches and other bugs - not bad, maybe 1-3 per day that I saw and periods where I didn't see any. They sprayed my room twice, I think, but never did it the third time I requested. It is likely that the spray was working and they were just coming from the neighboring room. Other bugs included silverfish (I think), pincer bugs, and pill bugs mostly in the bathroom. I came across maybe 5 lady bugs in my room during my stay, not that they were bothersome, just curious how they got there lol.3. Their accounting system is a nightmare for expensing your stay with your company, if you have to itemize the bill. Have them charge you the weekly rate up front instead of charging day-by-day if you have to itemize (rate is the same, their standard is just to reduce your account credit by the day instead of one time per week). 4. They add in linen service and don't really tell you that you're paying for it (on top of the weekly rate). If you don't want the linen service tell them and wash the sheets/towels yourself. They are easy to work with though and do refund if requested and you didn't use the service.5. The every-other week room cleaning was fine until one of their maids quit. They either didn't hire another one and don't plan to or they're having trouble finding a replacement. They won't give the other maid extra hours or she won't work them. My last month there my room was cleaned only once and it was over a week after it was supposed to be done.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r250705814-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>250705814</t>
+  </si>
+  <si>
+    <t>01/23/2015</t>
+  </si>
+  <si>
+    <t>good place to stay, take care of business</t>
+  </si>
+  <si>
+    <t>Stayed here twice in the last 2 months. The hotel is very clean and well maintained. Staff very nice and went out of their way to make sure everything is right. A person has to realize there is no room service every day but they tell you that going in, they exchange towels and sheets when you need them. A single is a small room but the plus is a full size refrigerator and a cook top. The bed is full size but very comfortable and the water is instantly hot when you turn it on. I think for a no frills hotel it is great. One drawback is you have to pay extra for internet.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Sean A, Owner at WoodSpring Suites Conroe, responded to this reviewResponded February 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here twice in the last 2 months. The hotel is very clean and well maintained. Staff very nice and went out of their way to make sure everything is right. A person has to realize there is no room service every day but they tell you that going in, they exchange towels and sheets when you need them. A single is a small room but the plus is a full size refrigerator and a cook top. The bed is full size but very comfortable and the water is instantly hot when you turn it on. I think for a no frills hotel it is great. One drawback is you have to pay extra for internet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r231302009-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>231302009</t>
+  </si>
+  <si>
+    <t>09/27/2014</t>
+  </si>
+  <si>
+    <t>horrible beds</t>
+  </si>
+  <si>
+    <t>nice location, hotel was decent, beds were awful. If you can sleep anywhere, go for it - but it was one of the worst nights of sleep I ever had. the bed was very hard and uncomfortable and I woke up sore all over the next morning. plenty of people were staying there that didn't seem to mind the beds, but for me personally I will never stay at a value place again unless I'm bringing an air mattress with me.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>nice location, hotel was decent, beds were awful. If you can sleep anywhere, go for it - but it was one of the worst nights of sleep I ever had. the bed was very hard and uncomfortable and I woke up sore all over the next morning. plenty of people were staying there that didn't seem to mind the beds, but for me personally I will never stay at a value place again unless I'm bringing an air mattress with me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r200522282-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>200522282</t>
+  </si>
+  <si>
+    <t>04/09/2014</t>
+  </si>
+  <si>
+    <t>My home away from home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affordable stay for a longer period of time. This place is a home away from home. Always attend to our complaints and needs. How I wish it is weekly cleaning and with a fitness gym. Thank you guys with the management of AJ. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r198974468-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>198974468</t>
+  </si>
+  <si>
+    <t>03/27/2014</t>
+  </si>
+  <si>
+    <t>Contractor spending 13 wks!</t>
+  </si>
+  <si>
+    <t>As a travel contractor, having a safe, clean place to stay is vital. Conroe Value Place was just that. The staff is always pleasant and helpful. The support staff work very hard keeping the facility clean and in shape. They were great! You have choices in them providing linen up to dishes or you taking care of them. Any questions or issues they were there to take care of it or make it right. I would recommend this extended stay to everyone that travels and needs more then a few day stay. The room was nice size, everything worked just fine. Secured building with key cards. Laundry facility secured with key card to! Parking lot is well lit. close to shopping and a variety of restaurants making it easier to get around until i learned the area. Starbucks just down the road. Loved the staff!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>As a travel contractor, having a safe, clean place to stay is vital. Conroe Value Place was just that. The staff is always pleasant and helpful. The support staff work very hard keeping the facility clean and in shape. They were great! You have choices in them providing linen up to dishes or you taking care of them. Any questions or issues they were there to take care of it or make it right. I would recommend this extended stay to everyone that travels and needs more then a few day stay. The room was nice size, everything worked just fine. Secured building with key cards. Laundry facility secured with key card to! Parking lot is well lit. close to shopping and a variety of restaurants making it easier to get around until i learned the area. Starbucks just down the road. Loved the staff!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1038,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1070,1404 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>57783</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>57783</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>57783</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>57783</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>57783</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>57783</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>57783</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" t="s">
+        <v>104</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>105</v>
+      </c>
+      <c r="X8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>57783</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>113</v>
+      </c>
+      <c r="O9" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>57783</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>123</v>
+      </c>
+      <c r="X10" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>57783</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" t="s">
+        <v>132</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>123</v>
+      </c>
+      <c r="X11" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>57783</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" t="s">
+        <v>137</v>
+      </c>
+      <c r="L12" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>139</v>
+      </c>
+      <c r="O12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>57783</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J13" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>145</v>
+      </c>
+      <c r="O13" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>57783</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" t="s">
+        <v>149</v>
+      </c>
+      <c r="L14" t="s">
+        <v>150</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>151</v>
+      </c>
+      <c r="O14" t="s">
+        <v>85</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>152</v>
+      </c>
+      <c r="X14" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>57783</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J15" t="s">
+        <v>157</v>
+      </c>
+      <c r="K15" t="s">
+        <v>158</v>
+      </c>
+      <c r="L15" t="s">
+        <v>159</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>160</v>
+      </c>
+      <c r="O15" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>57783</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>162</v>
+      </c>
+      <c r="J16" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" t="s">
+        <v>164</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>160</v>
+      </c>
+      <c r="O16" t="s">
+        <v>85</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>57783</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>167</v>
+      </c>
+      <c r="J17" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" t="s">
+        <v>169</v>
+      </c>
+      <c r="L17" t="s">
+        <v>170</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>171</v>
+      </c>
+      <c r="O17" t="s">
+        <v>85</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>57783</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>173</v>
+      </c>
+      <c r="J18" t="s">
+        <v>174</v>
+      </c>
+      <c r="K18" t="s">
+        <v>175</v>
+      </c>
+      <c r="L18" t="s">
+        <v>176</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>177</v>
+      </c>
+      <c r="O18" t="s">
+        <v>85</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>57783</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>180</v>
+      </c>
+      <c r="J19" t="s">
+        <v>181</v>
+      </c>
+      <c r="K19" t="s">
+        <v>182</v>
+      </c>
+      <c r="L19" t="s">
+        <v>183</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>184</v>
+      </c>
+      <c r="O19" t="s">
+        <v>85</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>185</v>
+      </c>
+      <c r="X19" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>57783</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>189</v>
+      </c>
+      <c r="J20" t="s">
+        <v>190</v>
+      </c>
+      <c r="K20" t="s">
+        <v>191</v>
+      </c>
+      <c r="L20" t="s">
+        <v>192</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>193</v>
+      </c>
+      <c r="O20" t="s">
+        <v>85</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>152</v>
+      </c>
+      <c r="X20" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>57783</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>195</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>196</v>
+      </c>
+      <c r="J21" t="s">
+        <v>197</v>
+      </c>
+      <c r="K21" t="s">
+        <v>198</v>
+      </c>
+      <c r="L21" t="s">
+        <v>199</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>57783</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>201</v>
+      </c>
+      <c r="J22" t="s">
+        <v>202</v>
+      </c>
+      <c r="K22" t="s">
+        <v>203</v>
+      </c>
+      <c r="L22" t="s">
+        <v>204</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>205</v>
+      </c>
+      <c r="O22" t="s">
+        <v>85</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_675.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_675.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="327">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,75 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r547257964-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1146185</t>
+  </si>
+  <si>
+    <t>547257964</t>
+  </si>
+  <si>
+    <t>12/14/2017</t>
+  </si>
+  <si>
+    <t>Awful place, stay away</t>
+  </si>
+  <si>
+    <t>My company put me up in this place, but it was so bad that after a couple of days we had to leave and find somewhere else. Here is the scoop:- In the middle of winter the heater wasn't working when I checked in. I called the office but it took them two days to fix it because their maintenance doesn't work on the weekends. Unacceptable. I was shivering the whole time.- The Internet is so slow as to be practically unusable. I had to tether my phone.- The exterior walls are paper thin and since the building is only a few feet from the expressway the traffic was defining inside my room. - The interior walls was paper thin too and as such anyone talking inside the hallway was audible. - When I arrived and uncovered my sheets I found a hair in my bed that wasn't mine.- There was hardly any water pressure in the shower so it took forever to get soap off- The mattress/boxsprings was so worn that when I crawled in to bed I sank almost half a food. It was impossible to sleep.- The entire hotel, hallways, and the rooms, have a very gross odor- There is no lobby- There is no hair dryer- And despite having a kitchen there were no paper towels, utensils, plates, etcMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>nmartinez2017, Owner at WoodSpring Suites Conroe, responded to this reviewResponded December 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2017</t>
+  </si>
+  <si>
+    <t>My company put me up in this place, but it was so bad that after a couple of days we had to leave and find somewhere else. Here is the scoop:- In the middle of winter the heater wasn't working when I checked in. I called the office but it took them two days to fix it because their maintenance doesn't work on the weekends. Unacceptable. I was shivering the whole time.- The Internet is so slow as to be practically unusable. I had to tether my phone.- The exterior walls are paper thin and since the building is only a few feet from the expressway the traffic was defining inside my room. - The interior walls was paper thin too and as such anyone talking inside the hallway was audible. - When I arrived and uncovered my sheets I found a hair in my bed that wasn't mine.- There was hardly any water pressure in the shower so it took forever to get soap off- The mattress/boxsprings was so worn that when I crawled in to bed I sank almost half a food. It was impossible to sleep.- The entire hotel, hallways, and the rooms, have a very gross odor- There is no lobby- There is no hair dryer- And despite having a kitchen there were no paper towels, utensils, plates, etcMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r545774987-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>545774987</t>
+  </si>
+  <si>
+    <t>12/07/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best customer service of any hotel I've stayed at. </t>
+  </si>
+  <si>
+    <t>I was in a moving transition and money was tight day to day. John and the staff were the absolute greatest in every way. John was especially helpful and it's nice to know that customer service is a top priority at this hotel. Will definitely recommend to friends and family and anyone else looking for a hassle free, clean, comfortable, and above all quality customer service hotel. Thank you again to John and all the staff!!                  - Mike A. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>nmartinez2017, Manager at WoodSpring Suites Conroe, responded to this reviewResponded December 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2017</t>
+  </si>
+  <si>
+    <t>I was in a moving transition and money was tight day to day. John and the staff were the absolute greatest in every way. John was especially helpful and it's nice to know that customer service is a top priority at this hotel. Will definitely recommend to friends and family and anyone else looking for a hassle free, clean, comfortable, and above all quality customer service hotel. Thank you again to John and all the staff!!                  - Mike A. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r523590306-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>1146185</t>
-  </si>
-  <si>
     <t>523590306</t>
   </si>
   <si>
@@ -174,9 +231,6 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>nmartinez2017, Manager at WoodSpring Suites Conroe, responded to this reviewResponded September 13, 2017</t>
   </si>
   <si>
@@ -231,6 +285,60 @@
     <t>Whilst waiting on some bureaucratic processing after selling my house in Willis before I could continue my global travel plans, I needed a place to stay for awhile. I checked out all of the local hotels, inns &amp; suites in the area &amp; most, (Red Roof, Comfort Inn, etc), offered a regular single room with no amenities. I wanted a reasonably priced 'safe &amp; clean' suite with a kitchen, WiFi, Good TV channels &amp; most importantly friendly management/staff that demonstrated total respect for their guests. I found it here! John K, Robin, Jake &amp; all of the crew here are welcoming, responsive &amp; safety conscious. In a business capacity I've stayed in "corporate expensed" big name hotels &amp; suites all over the world, (Hilton, Marriott, Residence Inns, Embassy Suites, Homewood Suites, Manhattan Suites in Cape Town, etc, etc), However...If you are looking for a competitively priced, secure, comfortable &amp; quiet! (I hear absolutely no noise from adjoining rooms), place to stay whether you are a contracting crew, visiting tourist or local looking for a place to stay close to Conroe, stores &amp; the lake...I highly recommend Woodspring suites.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r496134723-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>496134723</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>I needed to find a place for my workers to stay while working in Houston area.  This has been a great place to stay. John and his staff have courteous and helpful.  Rooms are clean. Kitchen is well equipped.  We will use this place again. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>nmartinez2017, Manager at WoodSpring Suites Conroe, responded to this reviewResponded June 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2017</t>
+  </si>
+  <si>
+    <t>I needed to find a place for my workers to stay while working in Houston area.  This has been a great place to stay. John and his staff have courteous and helpful.  Rooms are clean. Kitchen is well equipped.  We will use this place again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r489866432-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>489866432</t>
+  </si>
+  <si>
+    <t>06/02/2017</t>
+  </si>
+  <si>
+    <t>Very Good Experience &amp; Helpful Staff</t>
+  </si>
+  <si>
+    <t>Great staff. Comfortable beds. Full kitchens, double burner stoves and full sized refrigerators. It is very well kept as far as cleanliness goes around the property. Snack machine and soda machine are available. Washers and dryers on site as well. Awesome place to be.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>nmartinez2017, Manager at WoodSpring Suites Conroe, responded to this reviewResponded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Great staff. Comfortable beds. Full kitchens, double burner stoves and full sized refrigerators. It is very well kept as far as cleanliness goes around the property. Snack machine and soda machine are available. Washers and dryers on site as well. Awesome place to be.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r488598809-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
   </si>
   <si>
@@ -270,12 +378,6 @@
     <t>The front desk was just that and alarms should have gone off..The guys at front were wonderful for the quick intro.  The room when i got there was pretty good.  I didn't realize extended stay so of course had nothing there.  Hair dryer(had my own).  light in kitchen out so only had bedroom light. too bright so had to use the bathroom light.   No lamp at bedside table.  Mattress was not as comfortable as many.  Microwave kept throwing breaker switch.  I had to reset 5 times to heat my dinner.  I did not look close as i wanted a coffee pot.dryer,breakfast bar so i wouldn't have to drive all over.  More my fault then theirs for not paying attention but I would not recommend this without know strictly extended stay and no ammenities what so ever.....MoreShow less</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>nmartinez2017, Manager at WoodSpring Suites Conroe, responded to this reviewResponded May 16, 2017</t>
   </si>
   <si>
@@ -312,6 +414,54 @@
     <t>The front desk made scheduling and payment of the reservations EFFORTLESS for our out-of-town employees.  We sent employees weekly for almost a year, and the staff made sure our visiting employees were made to feel at home, as well as, ensuring our office staff had no hassles when it came time for check-in and check-out.  We will certainly continue to send our guys here when future project take us Conroe!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r465441598-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>465441598</t>
+  </si>
+  <si>
+    <t>03/07/2017</t>
+  </si>
+  <si>
+    <t>Very pleasant stay</t>
+  </si>
+  <si>
+    <t>The staff was very responsive to everything I needed. The grounds were well maintained as well as the facilities. Clean and secure guest laundry. Very convenient to shopping and a wide variety of restaurants. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2017</t>
+  </si>
+  <si>
+    <t>The staff was very responsive to everything I needed. The grounds were well maintained as well as the facilities. Clean and secure guest laundry. Very convenient to shopping and a wide variety of restaurants. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r465324274-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>465324274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekly </t>
+  </si>
+  <si>
+    <t>I have had no problem with the workers and other guest very clean place to bring your family and always makes you feel at home if you need anything they are here to help and its in a very good place if you need a places to eat and other things MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2017</t>
+  </si>
+  <si>
+    <t>I have had no problem with the workers and other guest very clean place to bring your family and always makes you feel at home if you need anything they are here to help and its in a very good place if you need a places to eat and other things More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r433283193-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
   </si>
   <si>
@@ -396,6 +546,48 @@
     <t>Stayed here when my power went out during the bad storms. Nice property and nice staff. Clean and just what I needed for a couple nights. Kim at front desk checked me in with no problems. Would stay here again. Close to stores and restaurants a lil highway noise but not to much More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r346419046-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>346419046</t>
+  </si>
+  <si>
+    <t>02/09/2016</t>
+  </si>
+  <si>
+    <t>Value place conroe</t>
+  </si>
+  <si>
+    <t>We have been staying at Value Place for several months now...Jessica and Liz have both been very nice and helpful. We appreciate you both very much and will miss you very much when you move on to other places.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>We have been staying at Value Place for several months now...Jessica and Liz have both been very nice and helpful. We appreciate you both very much and will miss you very much when you move on to other places.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r344400794-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>344400794</t>
+  </si>
+  <si>
+    <t>02/01/2016</t>
+  </si>
+  <si>
+    <t>Exceeded my expectations</t>
+  </si>
+  <si>
+    <t>I have to say I have stayed at several hotels but my stay at Value Place Conroe was one of the best. After a long day of travels and long lines at airports and car rentals all I wanted was to be in my room. But I have to say my day was turned around by Toni at the front desk. She was quick and friendly on getting me on my way to my room. She also was very courteous and asked about my day and asked if there was anything that they could do to make my day better and my stay a perfect. Hotels need more people like Toni. Kudos to Toni and the staff at Value Place Conroe. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>I have to say I have stayed at several hotels but my stay at Value Place Conroe was one of the best. After a long day of travels and long lines at airports and car rentals all I wanted was to be in my room. But I have to say my day was turned around by Toni at the front desk. She was quick and friendly on getting me on my way to my room. She also was very courteous and asked about my day and asked if there was anything that they could do to make my day better and my stay a perfect. Hotels need more people like Toni. Kudos to Toni and the staff at Value Place Conroe. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r331688130-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
   </si>
   <si>
@@ -456,6 +648,45 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r306211427-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>306211427</t>
+  </si>
+  <si>
+    <t>09/02/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totally disappointed </t>
+  </si>
+  <si>
+    <t>The reviews were positive so we opted to stay.   We got there after traveling 9 hours to be greeted by a line and there is no seating inside at all.   Since they had a "new system" it took us almost an hour to get checked in. There was a disgruntled patron that chose this very moment to make a scene as we were getting checked in. They had to have both our licences to perform a background check.   Our room had  stove but not a single pot or pan.   They have no ice but they do have ice trays in the freezer which is all well and good provided someone FILLS them prior to you arriving.   Oh,  and the ice trays had holes in them...they leaked.   You have to pay $10 a week for Internet access.   There was a bug in the sink.   The floors appeared to be thin because we heard people stomping around all night. When we went to check out,  the office was closed.   Hypothetically if we came in at this time after working all night and our key didn't work,  we would have been in a pickle. In my humble opinion, this place rates a three out of ten.   The only saving grace for this establishment is the sweetness of the lady at the front desk.   This was the first...and last time we are staying here. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>The reviews were positive so we opted to stay.   We got there after traveling 9 hours to be greeted by a line and there is no seating inside at all.   Since they had a "new system" it took us almost an hour to get checked in. There was a disgruntled patron that chose this very moment to make a scene as we were getting checked in. They had to have both our licences to perform a background check.   Our room had  stove but not a single pot or pan.   They have no ice but they do have ice trays in the freezer which is all well and good provided someone FILLS them prior to you arriving.   Oh,  and the ice trays had holes in them...they leaked.   You have to pay $10 a week for Internet access.   There was a bug in the sink.   The floors appeared to be thin because we heard people stomping around all night. When we went to check out,  the office was closed.   Hypothetically if we came in at this time after working all night and our key didn't work,  we would have been in a pickle. In my humble opinion, this place rates a three out of ten.   The only saving grace for this establishment is the sweetness of the lady at the front desk.   This was the first...and last time we are staying here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r304516509-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>304516509</t>
+  </si>
+  <si>
+    <t>08/28/2015</t>
+  </si>
+  <si>
+    <t>Great weekend stay</t>
+  </si>
+  <si>
+    <t>The Value Place had friendly customer service, was impressed by the manager Jessica was always prompt and courteous and made sure my needs were met.  I was impressed by the hotel's cleanliness.   The only thing I could think of that would be excellent is if the hotel offered free Wi-Fi.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r298207401-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
   </si>
   <si>
@@ -514,6 +745,45 @@
   </si>
   <si>
     <t>The Value Place is located just off of I-45 being easily accesible after a long travel. The extended stay feature allows your room rates to not be adjusted like most hotels do when you are there for days on end. I have been a Value Place resident for going on 2 months now and have had zero issues with tenants or employees. Mrs. Nicole has great knowledge about this location and is very helpful with questions about the hotel and local ammenities. Her personality makes me feel as if I am with a cousin or close friend, always so nice and generous. The laundry room is always kept up and there doesnt seem to be much traffic so it makes it really nice and comforting to do clothes. Surrounding parking lots and hallways are always nice and clean, the staff definetly shows that they care about their position here at value place. This will for sure be my go to hotel when I am in the areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r293739627-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>293739627</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>Something out of a horror movie.</t>
+  </si>
+  <si>
+    <t>Had  booked this with Priceline and had no idea this was an extended stay hotel.  We were checking in at 10:30 at night and there was no place to check in because the check-in window was closed.  Along with the bugs crawling up the walls was a sign to call a number if no one was there to check you in.  Called that number and no one answered.  Called back and was told the voice mail for that number was full.  I had my 2 grandchildren with me; 2 gentleman who were  also trying to check in came back to my car after I had left and told me that an employee had opened the check in window.  After taking over 15 minutes to check us in I was given cards to a room on the third floor.  We unloaded the car, dragged all of our stuff in to an elevator that reeked of smoke.  When we unlocked the door to the room we didn't even step in--it was a room of 3 unmade beds, coke bottles, water bottles, towels on the floor, in no way prepared for guests.  We hauled all of our stuff back into the reeking elevator to go downstairs; had to call to get the employee back to the desk.  I told him the condition of the room, and that I wanted a refund.  He told me that I'd have to take it up with Priceline,...Had  booked this with Priceline and had no idea this was an extended stay hotel.  We were checking in at 10:30 at night and there was no place to check in because the check-in window was closed.  Along with the bugs crawling up the walls was a sign to call a number if no one was there to check you in.  Called that number and no one answered.  Called back and was told the voice mail for that number was full.  I had my 2 grandchildren with me; 2 gentleman who were  also trying to check in came back to my car after I had left and told me that an employee had opened the check in window.  After taking over 15 minutes to check us in I was given cards to a room on the third floor.  We unloaded the car, dragged all of our stuff in to an elevator that reeked of smoke.  When we unlocked the door to the room we didn't even step in--it was a room of 3 unmade beds, coke bottles, water bottles, towels on the floor, in no way prepared for guests.  We hauled all of our stuff back into the reeking elevator to go downstairs; had to call to get the employee back to the desk.  I told him the condition of the room, and that I wanted a refund.  He told me that I'd have to take it up with Priceline, and that he wouldn't do anything about it. It was the worst hotel experience I've ever had, and I travel a lot.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Had  booked this with Priceline and had no idea this was an extended stay hotel.  We were checking in at 10:30 at night and there was no place to check in because the check-in window was closed.  Along with the bugs crawling up the walls was a sign to call a number if no one was there to check you in.  Called that number and no one answered.  Called back and was told the voice mail for that number was full.  I had my 2 grandchildren with me; 2 gentleman who were  also trying to check in came back to my car after I had left and told me that an employee had opened the check in window.  After taking over 15 minutes to check us in I was given cards to a room on the third floor.  We unloaded the car, dragged all of our stuff in to an elevator that reeked of smoke.  When we unlocked the door to the room we didn't even step in--it was a room of 3 unmade beds, coke bottles, water bottles, towels on the floor, in no way prepared for guests.  We hauled all of our stuff back into the reeking elevator to go downstairs; had to call to get the employee back to the desk.  I told him the condition of the room, and that I wanted a refund.  He told me that I'd have to take it up with Priceline,...Had  booked this with Priceline and had no idea this was an extended stay hotel.  We were checking in at 10:30 at night and there was no place to check in because the check-in window was closed.  Along with the bugs crawling up the walls was a sign to call a number if no one was there to check you in.  Called that number and no one answered.  Called back and was told the voice mail for that number was full.  I had my 2 grandchildren with me; 2 gentleman who were  also trying to check in came back to my car after I had left and told me that an employee had opened the check in window.  After taking over 15 minutes to check us in I was given cards to a room on the third floor.  We unloaded the car, dragged all of our stuff in to an elevator that reeked of smoke.  When we unlocked the door to the room we didn't even step in--it was a room of 3 unmade beds, coke bottles, water bottles, towels on the floor, in no way prepared for guests.  We hauled all of our stuff back into the reeking elevator to go downstairs; had to call to get the employee back to the desk.  I told him the condition of the room, and that I wanted a refund.  He told me that I'd have to take it up with Priceline, and that he wouldn't do anything about it. It was the worst hotel experience I've ever had, and I travel a lot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r283152503-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>283152503</t>
+  </si>
+  <si>
+    <t>06/26/2015</t>
+  </si>
+  <si>
+    <t>Beware if Disabled</t>
+  </si>
+  <si>
+    <t>We booked our stay several months in advance and spoke directly to the Conroe front desk. We were assured our reservation for a "roll in shower handicap room" would be ready. After two days on the road we arrived to find out that the room was not available. My paralyzed husband and I were placed on the top floor (smoking) in a handicap room with a tub/shower. The room had a terrible smell when you walk in and of course the common area smells like cigarettes. A couple of days later I tried to speak to a clerk and was not offered any apology. Just excuses as to why we couldn't have been notified. There wasnt time  to find another place   Another bad experience for a less fortunate human being. MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked our stay several months in advance and spoke directly to the Conroe front desk. We were assured our reservation for a "roll in shower handicap room" would be ready. After two days on the road we arrived to find out that the room was not available. My paralyzed husband and I were placed on the top floor (smoking) in a handicap room with a tub/shower. The room had a terrible smell when you walk in and of course the common area smells like cigarettes. A couple of days later I tried to speak to a clerk and was not offered any apology. Just excuses as to why we couldn't have been notified. There wasnt time  to find another place   Another bad experience for a less fortunate human being. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r271551824-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
@@ -590,6 +860,42 @@
     <t>Stayed here twice in the last 2 months. The hotel is very clean and well maintained. Staff very nice and went out of their way to make sure everything is right. A person has to realize there is no room service every day but they tell you that going in, they exchange towels and sheets when you need them. A single is a small room but the plus is a full size refrigerator and a cook top. The bed is full size but very comfortable and the water is instantly hot when you turn it on. I think for a no frills hotel it is great. One drawback is you have to pay extra for internet.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r241586560-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>241586560</t>
+  </si>
+  <si>
+    <t>11/26/2014</t>
+  </si>
+  <si>
+    <t>None because it was terrible the lady to clean the room never clean the room clean it's terrible roaches its spiders tb</t>
+  </si>
+  <si>
+    <t>The room was a little small Dankworth nothing I got to got a big fridgerator though little island I'm not a fan of at the beginning nobody clean that goes in a room and come out and then go report back to the front on the right the next day and then go to love it love you have to stand some like that it ain't worth it I'm just letting you know heads up that kick you out at the last minute you don't get your deposit back the location is beautiful location to I got fed up that again by those in the room I'm really mean it I don't play when I face her to with that place you want just am no play game that trick you to get info on you get in the service is poorly about to talk to the big bosses I will tell him out of service Lord but I can't get in contact with himMoreShow less</t>
+  </si>
+  <si>
+    <t>The room was a little small Dankworth nothing I got to got a big fridgerator though little island I'm not a fan of at the beginning nobody clean that goes in a room and come out and then go report back to the front on the right the next day and then go to love it love you have to stand some like that it ain't worth it I'm just letting you know heads up that kick you out at the last minute you don't get your deposit back the location is beautiful location to I got fed up that again by those in the room I'm really mean it I don't play when I face her to with that place you want just am no play game that trick you to get info on you get in the service is poorly about to talk to the big bosses I will tell him out of service Lord but I can't get in contact with himMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r236023082-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>236023082</t>
+  </si>
+  <si>
+    <t>10/24/2014</t>
+  </si>
+  <si>
+    <t>Look elsewhere.</t>
+  </si>
+  <si>
+    <t>My boyfriend and i moved to conroe for his job so we decided to stay here until we can afford an apartment. I'm not going to say it was horrible but it could be better. The bed was too small and very uncomfortable my back hurt everyday and we had to go and buy our own pillows because theirs were too stiff. We had the the fridge set the the coldest possible setting and our food still spoiled within a couple days so now we have to cram most of our stuff in the freezer. And they said they charged us for our second week, but it turns out they didn't so on our third week they took out two payments and left us completely broke. And the ladies down stairs told me we were not set up to where they would just take the payment out and that if we didn't pay they would ask us to leave. But when my boyfriend got home and went down there to pay another lady said we were set up with it and that the payment was already taken. Every week we seem to have another problem with the service here so I would say don't make this your first option when looking.MoreShow less</t>
+  </si>
+  <si>
+    <t>My boyfriend and i moved to conroe for his job so we decided to stay here until we can afford an apartment. I'm not going to say it was horrible but it could be better. The bed was too small and very uncomfortable my back hurt everyday and we had to go and buy our own pillows because theirs were too stiff. We had the the fridge set the the coldest possible setting and our food still spoiled within a couple days so now we have to cram most of our stuff in the freezer. And they said they charged us for our second week, but it turns out they didn't so on our third week they took out two payments and left us completely broke. And the ladies down stairs told me we were not set up to where they would just take the payment out and that if we didn't pay they would ask us to leave. But when my boyfriend got home and went down there to pay another lady said we were set up with it and that the payment was already taken. Every week we seem to have another problem with the service here so I would say don't make this your first option when looking.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r231302009-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
   </si>
   <si>
@@ -645,6 +951,66 @@
   </si>
   <si>
     <t>As a travel contractor, having a safe, clean place to stay is vital. Conroe Value Place was just that. The staff is always pleasant and helpful. The support staff work very hard keeping the facility clean and in shape. They were great! You have choices in them providing linen up to dishes or you taking care of them. Any questions or issues they were there to take care of it or make it right. I would recommend this extended stay to everyone that travels and needs more then a few day stay. The room was nice size, everything worked just fine. Secured building with key cards. Laundry facility secured with key card to! Parking lot is well lit. close to shopping and a variety of restaurants making it easier to get around until i learned the area. Starbucks just down the road. Loved the staff!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r165595486-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>165595486</t>
+  </si>
+  <si>
+    <t>06/28/2013</t>
+  </si>
+  <si>
+    <t>A pleasant say, but could be better.</t>
+  </si>
+  <si>
+    <t>For the most part I have good things to say. The rooms were nice and spacious, which helped me feel a lot more comfortable. Everything in the rooms worked when I first moved in and everything was clean. Felt safe the entire time too. Cameras are set up in all the halls and you need your card key to get past the office.
+The staff was nice, and the price was very reasonable. It didn't cost too much up front, and after a month my taxes are refunded and I didn't have to pay them again for the remainder of your stay. Helped with the price quite a bit.
+The beds weren't terribly comfortable at first, just a spring top, but they got new ones and changed all of them out after I stayed for a month, which greatly improved the comfort. Although it's right across from the highway, I never heard any sound from it, which really helped me get a good nights sleep. The only thing I'll say about sleep is that I wish there were some curtains, since the blinds don't block all the light.
+The kitchen was decent. Full fridge, two stove tops, sink, and enough cabinet space for what I had. Not a lot of counter space however, so I had to use it carefully, and there's no stove, so it's not a full kitchen like they advertise in my opinion. Not a big complaint,...For the most part I have good things to say. The rooms were nice and spacious, which helped me feel a lot more comfortable. Everything in the rooms worked when I first moved in and everything was clean. Felt safe the entire time too. Cameras are set up in all the halls and you need your card key to get past the office.The staff was nice, and the price was very reasonable. It didn't cost too much up front, and after a month my taxes are refunded and I didn't have to pay them again for the remainder of your stay. Helped with the price quite a bit.The beds weren't terribly comfortable at first, just a spring top, but they got new ones and changed all of them out after I stayed for a month, which greatly improved the comfort. Although it's right across from the highway, I never heard any sound from it, which really helped me get a good nights sleep. The only thing I'll say about sleep is that I wish there were some curtains, since the blinds don't block all the light.The kitchen was decent. Full fridge, two stove tops, sink, and enough cabinet space for what I had. Not a lot of counter space however, so I had to use it carefully, and there's no stove, so it's not a full kitchen like they advertise in my opinion. Not a big complaint, but it would have made meals a little easier, since I didn't really want to eat out every night.There are quite a few rules, which fortunately didn't inconvenience me. Your card gets disabled if your late on your payment, you need to give 24 hour notice before checking out, and there are a fair number of extras that you have to pay for, which usually would be included.My biggest complaint would have to be the internet. I usually spend most of my leisure time on the internet, so when their "high speed" internet only clocks between 1KBs-100 KBs, usually around the 10 KBs, it makes it hard to use. Even facebook and email can be slow often times. It also isn't wireless and requires an ethernet cable, which is a first for me at any hotel, meaning that I can't move around with my laptop and I was practically anchored to the table. It wasn't included either, and requires an additional $10 a week, which is about the same amount I pay for my 25 MBs connection back at home. If you can get by without it, it isn't worth it.A major annoyance however is that the fire alarms went off incredibly often. At least once or twice a week after getting off of work the alarm would go off sometime in the evening for a few seconds to a minute, and I talked to a few guests that said it's happened every day.For what I payed for, I'm happy with what I got. It was very reasonable, especially after my taxes were refunded, and all I was really looking for was a place to say after I got off of work during my trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Conroe, responded to this reviewResponded July 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2013</t>
+  </si>
+  <si>
+    <t>For the most part I have good things to say. The rooms were nice and spacious, which helped me feel a lot more comfortable. Everything in the rooms worked when I first moved in and everything was clean. Felt safe the entire time too. Cameras are set up in all the halls and you need your card key to get past the office.
+The staff was nice, and the price was very reasonable. It didn't cost too much up front, and after a month my taxes are refunded and I didn't have to pay them again for the remainder of your stay. Helped with the price quite a bit.
+The beds weren't terribly comfortable at first, just a spring top, but they got new ones and changed all of them out after I stayed for a month, which greatly improved the comfort. Although it's right across from the highway, I never heard any sound from it, which really helped me get a good nights sleep. The only thing I'll say about sleep is that I wish there were some curtains, since the blinds don't block all the light.
+The kitchen was decent. Full fridge, two stove tops, sink, and enough cabinet space for what I had. Not a lot of counter space however, so I had to use it carefully, and there's no stove, so it's not a full kitchen like they advertise in my opinion. Not a big complaint,...For the most part I have good things to say. The rooms were nice and spacious, which helped me feel a lot more comfortable. Everything in the rooms worked when I first moved in and everything was clean. Felt safe the entire time too. Cameras are set up in all the halls and you need your card key to get past the office.The staff was nice, and the price was very reasonable. It didn't cost too much up front, and after a month my taxes are refunded and I didn't have to pay them again for the remainder of your stay. Helped with the price quite a bit.The beds weren't terribly comfortable at first, just a spring top, but they got new ones and changed all of them out after I stayed for a month, which greatly improved the comfort. Although it's right across from the highway, I never heard any sound from it, which really helped me get a good nights sleep. The only thing I'll say about sleep is that I wish there were some curtains, since the blinds don't block all the light.The kitchen was decent. Full fridge, two stove tops, sink, and enough cabinet space for what I had. Not a lot of counter space however, so I had to use it carefully, and there's no stove, so it's not a full kitchen like they advertise in my opinion. Not a big complaint, but it would have made meals a little easier, since I didn't really want to eat out every night.There are quite a few rules, which fortunately didn't inconvenience me. Your card gets disabled if your late on your payment, you need to give 24 hour notice before checking out, and there are a fair number of extras that you have to pay for, which usually would be included.My biggest complaint would have to be the internet. I usually spend most of my leisure time on the internet, so when their "high speed" internet only clocks between 1KBs-100 KBs, usually around the 10 KBs, it makes it hard to use. Even facebook and email can be slow often times. It also isn't wireless and requires an ethernet cable, which is a first for me at any hotel, meaning that I can't move around with my laptop and I was practically anchored to the table. It wasn't included either, and requires an additional $10 a week, which is about the same amount I pay for my 25 MBs connection back at home. If you can get by without it, it isn't worth it.A major annoyance however is that the fire alarms went off incredibly often. At least once or twice a week after getting off of work the alarm would go off sometime in the evening for a few seconds to a minute, and I talked to a few guests that said it's happened every day.For what I payed for, I'm happy with what I got. It was very reasonable, especially after my taxes were refunded, and all I was really looking for was a place to say after I got off of work during my trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146185-r116998499-WoodSpring_Suites_Conroe-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>116998499</t>
+  </si>
+  <si>
+    <t>08/20/2011</t>
+  </si>
+  <si>
+    <t>Too Many Rules &amp; Regulations - Not Pet Friendly</t>
+  </si>
+  <si>
+    <t>Unusual rules, even though I paid for 1 week, up front, for a one week stay, they charged a $100.00 deposit and required 24 hour notice, in writing,  to leave.  I was not renting an apartment, just a week in a hotel.  Then we were required to clean the room before our deposit was returned.  They only service the rooms every other week.If you know what you are getting into up front, not a bad place to stay.  Staff was great, rooms were good considering the price.  They had full kitchens so we did not have to eat out every meal.  I would stay here more ofte if they relaxed their NO PETS policy.  My little ones are my children, not nearly as noisy, and have more manners than 90% of the human variety I have met. They would have many more travelers if they understood about people and their pets.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>Heather L, Manager at WoodSpring Suites Conroe, responded to this reviewResponded July 23, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2012</t>
+  </si>
+  <si>
+    <t>Unusual rules, even though I paid for 1 week, up front, for a one week stay, they charged a $100.00 deposit and required 24 hour notice, in writing,  to leave.  I was not renting an apartment, just a week in a hotel.  Then we were required to clean the room before our deposit was returned.  They only service the rooms every other week.If you know what you are getting into up front, not a bad place to stay.  Staff was great, rooms were good considering the price.  They had full kitchens so we did not have to eat out every meal.  I would stay here more ofte if they relaxed their NO PETS policy.  My little ones are my children, not nearly as noisy, and have more manners than 90% of the human variety I have met. They would have many more travelers if they understood about people and their pets.More</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1545,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1188,14 +1554,14 @@
         <v>52</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>5</v>
-      </c>
-      <c r="R2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1244,13 +1610,13 @@
         <v>60</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
         <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1262,13 +1628,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
         <v>63</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>64</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -1284,7 +1650,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1293,10 +1659,10 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
         <v>67</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
       </c>
       <c r="K4" t="s">
         <v>68</v>
@@ -1308,15 +1674,15 @@
         <v>5</v>
       </c>
       <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
         <v>61</v>
       </c>
-      <c r="O4" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
@@ -1327,13 +1693,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -1349,7 +1715,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1358,22 +1724,26 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>80</v>
+      </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
@@ -1384,13 +1754,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -1406,7 +1776,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1415,46 +1785,44 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>4</v>
-      </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="X6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="Y6" t="s">
         <v>88</v>
@@ -1500,7 +1868,7 @@
         <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1561,7 +1929,7 @@
         <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1573,13 +1941,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
+        <v>104</v>
+      </c>
+      <c r="X8" t="s">
         <v>105</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>106</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="9">
@@ -1595,7 +1963,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1604,47 +1972,39 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" t="s">
         <v>109</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>110</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>111</v>
       </c>
-      <c r="L9" t="s">
-        <v>112</v>
-      </c>
       <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>113</v>
-      </c>
-      <c r="O9" t="s">
-        <v>85</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
+        <v>112</v>
+      </c>
+      <c r="X9" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y9" t="s">
         <v>114</v>
-      </c>
-      <c r="X9" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="10">
@@ -1660,7 +2020,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1669,43 +2029,49 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" t="s">
         <v>118</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>119</v>
       </c>
-      <c r="K10" t="s">
-        <v>120</v>
-      </c>
-      <c r="L10" t="s">
-        <v>121</v>
-      </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O10" t="s">
-        <v>62</v>
-      </c>
-      <c r="P10" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
       <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="X10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Y10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
@@ -1721,7 +2087,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1730,25 +2096,25 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" t="s">
         <v>127</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>128</v>
       </c>
-      <c r="K11" t="s">
-        <v>129</v>
-      </c>
-      <c r="L11" t="s">
-        <v>130</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>131</v>
-      </c>
       <c r="O11" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1760,13 +2126,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="X11" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="Y11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
@@ -1782,7 +2148,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -1791,45 +2157,43 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" t="s">
         <v>135</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>136</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
         <v>137</v>
       </c>
-      <c r="L12" t="s">
-        <v>138</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>139</v>
-      </c>
       <c r="O12" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>138</v>
+      </c>
+      <c r="X12" t="s">
+        <v>139</v>
+      </c>
       <c r="Y12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -1845,7 +2209,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -1854,10 +2218,10 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J13" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
         <v>143</v>
@@ -1869,30 +2233,28 @@
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="O13" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>145</v>
+      </c>
+      <c r="X13" t="s">
+        <v>146</v>
+      </c>
       <c r="Y13" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14">
@@ -1908,7 +2270,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -1917,25 +2279,25 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J14" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O14" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -1947,13 +2309,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="X14" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Y14" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15">
@@ -1969,7 +2331,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -1978,43 +2340,47 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="J15" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K15" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L15" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O15" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>164</v>
+      </c>
+      <c r="X15" t="s">
+        <v>165</v>
+      </c>
       <c r="Y15" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16">
@@ -2030,7 +2396,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2039,45 +2405,43 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="J16" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="K16" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="O16" t="s">
-        <v>85</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>173</v>
+      </c>
+      <c r="X16" t="s">
+        <v>174</v>
+      </c>
       <c r="Y16" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
@@ -2093,7 +2457,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2102,45 +2466,43 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="J17" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="O17" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>173</v>
+      </c>
+      <c r="X17" t="s">
+        <v>174</v>
+      </c>
       <c r="Y17" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18">
@@ -2156,7 +2518,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2165,43 +2527,43 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="J18" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="K18" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="L18" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="O18" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>3</v>
-      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>3</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>173</v>
+      </c>
+      <c r="X18" t="s">
+        <v>174</v>
+      </c>
       <c r="Y18" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19">
@@ -2217,7 +2579,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -2226,47 +2588,43 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="J19" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="K19" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="O19" t="s">
-        <v>85</v>
+        <v>196</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>4</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="X19" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="Y19" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20">
@@ -2282,7 +2640,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -2291,53 +2649,45 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="J20" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="K20" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="O20" t="s">
-        <v>85</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
       <c r="R20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>152</v>
-      </c>
-      <c r="X20" t="s">
-        <v>153</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21">
@@ -2353,7 +2703,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -2362,34 +2712,34 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="J21" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="K21" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
+      <c r="N21" t="s">
+        <v>209</v>
+      </c>
+      <c r="O21" t="s">
+        <v>80</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="n">
         <v>5</v>
       </c>
       <c r="R21" t="n">
         <v>5</v>
       </c>
-      <c r="S21" t="n">
-        <v>4</v>
-      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
         <v>5</v>
@@ -2400,7 +2750,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22">
@@ -2416,7 +2766,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -2425,49 +2775,1061 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="J22" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="K22" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="L22" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="O22" t="s">
-        <v>85</v>
-      </c>
-      <c r="P22" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>206</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>57783</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>217</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>218</v>
+      </c>
+      <c r="J23" t="s">
+        <v>219</v>
+      </c>
+      <c r="K23" t="s">
+        <v>220</v>
+      </c>
+      <c r="L23" t="s">
+        <v>221</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>222</v>
+      </c>
+      <c r="O23" t="s">
+        <v>80</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>57783</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>223</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>224</v>
+      </c>
+      <c r="J24" t="s">
+        <v>225</v>
+      </c>
+      <c r="K24" t="s">
+        <v>226</v>
+      </c>
+      <c r="L24" t="s">
+        <v>227</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>228</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>229</v>
+      </c>
+      <c r="X24" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>57783</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>232</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>233</v>
+      </c>
+      <c r="J25" t="s">
+        <v>234</v>
+      </c>
+      <c r="K25" t="s">
+        <v>235</v>
+      </c>
+      <c r="L25" t="s">
+        <v>236</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>237</v>
+      </c>
+      <c r="O25" t="s">
+        <v>80</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>57783</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>238</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>239</v>
+      </c>
+      <c r="J26" t="s">
+        <v>234</v>
+      </c>
+      <c r="K26" t="s">
+        <v>240</v>
+      </c>
+      <c r="L26" t="s">
+        <v>241</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>237</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>57783</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>243</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>244</v>
+      </c>
+      <c r="J27" t="s">
+        <v>245</v>
+      </c>
+      <c r="K27" t="s">
+        <v>246</v>
+      </c>
+      <c r="L27" t="s">
+        <v>247</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>248</v>
+      </c>
+      <c r="O27" t="s">
+        <v>80</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>57783</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>250</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>251</v>
+      </c>
+      <c r="J28" t="s">
+        <v>252</v>
+      </c>
+      <c r="K28" t="s">
+        <v>253</v>
+      </c>
+      <c r="L28" t="s">
+        <v>254</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>237</v>
+      </c>
+      <c r="O28" t="s">
+        <v>80</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>57783</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>256</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>257</v>
+      </c>
+      <c r="J29" t="s">
+        <v>258</v>
+      </c>
+      <c r="K29" t="s">
+        <v>259</v>
+      </c>
+      <c r="L29" t="s">
+        <v>260</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>261</v>
+      </c>
+      <c r="O29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>57783</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>262</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>263</v>
+      </c>
+      <c r="J30" t="s">
+        <v>264</v>
+      </c>
+      <c r="K30" t="s">
+        <v>265</v>
+      </c>
+      <c r="L30" t="s">
+        <v>266</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>267</v>
+      </c>
+      <c r="O30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>57783</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>269</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K31" t="s">
+        <v>272</v>
+      </c>
+      <c r="L31" t="s">
+        <v>273</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>274</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>275</v>
+      </c>
+      <c r="X31" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>57783</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>278</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>279</v>
+      </c>
+      <c r="J32" t="s">
+        <v>280</v>
+      </c>
+      <c r="K32" t="s">
+        <v>281</v>
+      </c>
+      <c r="L32" t="s">
+        <v>282</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>275</v>
+      </c>
+      <c r="X32" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>57783</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>284</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>285</v>
+      </c>
+      <c r="J33" t="s">
+        <v>286</v>
+      </c>
+      <c r="K33" t="s">
+        <v>287</v>
+      </c>
+      <c r="L33" t="s">
+        <v>288</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>57783</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>290</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>291</v>
+      </c>
+      <c r="J34" t="s">
+        <v>292</v>
+      </c>
+      <c r="K34" t="s">
+        <v>293</v>
+      </c>
+      <c r="L34" t="s">
+        <v>294</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>295</v>
+      </c>
+      <c r="O34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>229</v>
+      </c>
+      <c r="X34" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>57783</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>297</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>298</v>
+      </c>
+      <c r="J35" t="s">
+        <v>299</v>
+      </c>
+      <c r="K35" t="s">
+        <v>300</v>
+      </c>
+      <c r="L35" t="s">
+        <v>301</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>57783</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>302</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>303</v>
+      </c>
+      <c r="J36" t="s">
+        <v>304</v>
+      </c>
+      <c r="K36" t="s">
+        <v>305</v>
+      </c>
+      <c r="L36" t="s">
+        <v>306</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>307</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>57783</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>309</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>310</v>
+      </c>
+      <c r="J37" t="s">
+        <v>311</v>
+      </c>
+      <c r="K37" t="s">
+        <v>312</v>
+      </c>
+      <c r="L37" t="s">
+        <v>313</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>314</v>
+      </c>
+      <c r="O37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>315</v>
+      </c>
+      <c r="X37" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>57783</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>318</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>319</v>
+      </c>
+      <c r="J38" t="s">
+        <v>320</v>
+      </c>
+      <c r="K38" t="s">
+        <v>321</v>
+      </c>
+      <c r="L38" t="s">
+        <v>322</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>323</v>
+      </c>
+      <c r="O38" t="s">
+        <v>80</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>324</v>
+      </c>
+      <c r="X38" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
